--- a/RMI/RMI/media/Reporte/REPORTE_MENSUAL_INSTRUCTOR_v2.xlsx
+++ b/RMI/RMI/media/Reporte/REPORTE_MENSUAL_INSTRUCTOR_v2.xlsx
@@ -1644,62 +1644,201 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="30" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1723,10 +1862,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1734,13 +1872,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1776,10 +1921,10 @@
     <xf numFmtId="0" fontId="34" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1795,169 +1940,24 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2389,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AK1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2414,34 +2414,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="111" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="1"/>
@@ -2457,38 +2457,38 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="186" t="s">
+      <c r="A3" s="157"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="187" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187" t="s">
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187" t="s">
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="187"/>
+      <c r="X3" s="86"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="2"/>
@@ -2504,36 +2504,36 @@
       <c r="AK3" s="1"/>
     </row>
     <row r="4" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="188" t="s">
+      <c r="A4" s="157"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="188"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="189" t="s">
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="190"/>
-      <c r="Q4" s="190"/>
-      <c r="R4" s="190"/>
-      <c r="S4" s="190"/>
-      <c r="T4" s="190"/>
-      <c r="U4" s="190"/>
-      <c r="V4" s="191"/>
-      <c r="W4" s="115" t="s">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="116"/>
+      <c r="X4" s="173"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="2"/>
@@ -2549,36 +2549,36 @@
       <c r="AK4" s="1"/>
     </row>
     <row r="5" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102"/>
-      <c r="B5" s="185" t="s">
+      <c r="A5" s="157"/>
+      <c r="B5" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="192" t="s">
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="192"/>
-      <c r="Q5" s="192"/>
-      <c r="R5" s="192"/>
-      <c r="S5" s="192"/>
-      <c r="T5" s="192"/>
-      <c r="U5" s="192"/>
-      <c r="V5" s="192"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="118"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="175"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="2"/>
@@ -2594,34 +2594,34 @@
       <c r="AK5" s="1"/>
     </row>
     <row r="6" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="188">
+      <c r="A6" s="157"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="87">
         <v>10548375</v>
       </c>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="188" t="s">
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="188"/>
-      <c r="V6" s="188"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="120"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="176"/>
+      <c r="X6" s="177"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="2"/>
@@ -2637,30 +2637,30 @@
       <c r="AK6" s="1"/>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102"/>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="123"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="179"/>
+      <c r="U7" s="179"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="180"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -2690,15 +2690,15 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
       <c r="X8" s="18"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -2715,32 +2715,32 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="98"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="153"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -2756,25 +2756,25 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="70" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="109" t="s">
@@ -2786,26 +2786,26 @@
       <c r="L10" s="110"/>
       <c r="M10" s="110"/>
       <c r="N10" s="19"/>
-      <c r="O10" s="148" t="s">
+      <c r="O10" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="146" t="s">
+      <c r="P10" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="146" t="s">
+      <c r="Q10" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="103" t="s">
+      <c r="R10" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="128" t="s">
+      <c r="S10" s="185" t="s">
         <v>12</v>
       </c>
       <c r="T10" s="110"/>
       <c r="U10" s="110"/>
       <c r="V10" s="110"/>
       <c r="W10" s="110"/>
-      <c r="X10" s="129"/>
+      <c r="X10" s="186"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2821,13 +2821,13 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="100"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="40" t="s">
         <v>13</v>
       </c>
@@ -2849,16 +2849,16 @@
       <c r="N11" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="104"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="132"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="188"/>
+      <c r="U11" s="188"/>
+      <c r="V11" s="188"/>
+      <c r="W11" s="188"/>
+      <c r="X11" s="189"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -2925,53 +2925,53 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="82">
-        <v>1194031</v>
+      <c r="A13" s="182">
+        <v>1196031</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="166">
         <f>140*0.75</f>
         <v>105</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="180" t="s">
+      <c r="F13" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="162">
         <v>22</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="73" t="s">
+      <c r="K13" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="73" t="s">
+      <c r="L13" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="76" t="s">
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70">
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133">
         <v>30</v>
       </c>
-      <c r="R13" s="70"/>
+      <c r="R13" s="133"/>
       <c r="S13" s="51">
         <v>2</v>
       </c>
@@ -3005,24 +3005,24 @@
       <c r="AK13" s="4"/>
     </row>
     <row r="14" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="126"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
+      <c r="A14" s="183"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="159"/>
       <c r="S14" s="57"/>
       <c r="T14" s="58"/>
       <c r="U14" s="61"/>
@@ -3044,24 +3044,24 @@
       <c r="AK14" s="4"/>
     </row>
     <row r="15" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="126"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="197"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="105"/>
+      <c r="A15" s="183"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="159"/>
       <c r="S15" s="57"/>
       <c r="T15" s="58"/>
       <c r="U15" s="61"/>
@@ -3083,26 +3083,26 @@
       <c r="AK15" s="4"/>
     </row>
     <row r="16" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="126"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="124" t="s">
+      <c r="A16" s="183"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
       <c r="S16" s="48">
         <v>9</v>
       </c>
@@ -3136,24 +3136,24 @@
       <c r="AK16" s="4"/>
     </row>
     <row r="17" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="126"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
+      <c r="A17" s="183"/>
+      <c r="B17" s="167"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
       <c r="S17" s="48">
         <v>16</v>
       </c>
@@ -3187,26 +3187,26 @@
       <c r="AK17" s="4"/>
     </row>
     <row r="18" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="126"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="124" t="s">
+      <c r="A18" s="183"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="89"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
       <c r="S18" s="63">
         <v>23</v>
       </c>
@@ -3240,24 +3240,24 @@
       <c r="AK18" s="4"/>
     </row>
     <row r="19" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
+      <c r="A19" s="184"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="149"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
       <c r="S19" s="66">
         <v>30</v>
       </c>
@@ -3283,49 +3283,49 @@
       <c r="AK19" s="4"/>
     </row>
     <row r="20" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="82">
+      <c r="A20" s="182">
         <v>1134010</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="166">
         <f>140*0.75</f>
         <v>105</v>
       </c>
-      <c r="E20" s="85" t="s">
+      <c r="E20" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="91" t="s">
+      <c r="F20" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="88">
+      <c r="G20" s="162">
         <v>24</v>
       </c>
-      <c r="H20" s="73" t="s">
+      <c r="H20" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73" t="s">
+      <c r="J20" s="147"/>
+      <c r="K20" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="76" t="s">
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70">
+      <c r="P20" s="133"/>
+      <c r="Q20" s="133">
         <v>15</v>
       </c>
-      <c r="R20" s="70"/>
+      <c r="R20" s="133"/>
       <c r="S20" s="51">
         <v>2</v>
       </c>
@@ -3359,24 +3359,24 @@
       <c r="AK20" s="4"/>
     </row>
     <row r="21" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="83"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
+      <c r="A21" s="191"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
       <c r="S21" s="48">
         <v>9</v>
       </c>
@@ -3410,24 +3410,24 @@
       <c r="AK21" s="4"/>
     </row>
     <row r="22" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="83"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
+      <c r="A22" s="191"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
       <c r="S22" s="48">
         <v>16</v>
       </c>
@@ -3461,26 +3461,26 @@
       <c r="AK22" s="4"/>
     </row>
     <row r="23" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="83"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="92" t="s">
+      <c r="A23" s="191"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="89"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
       <c r="S23" s="63">
         <v>23</v>
       </c>
@@ -3514,24 +3514,24 @@
       <c r="AK23" s="4"/>
     </row>
     <row r="24" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
+      <c r="A24" s="192"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="149"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="135"/>
+      <c r="R24" s="135"/>
       <c r="S24" s="66">
         <v>30</v>
       </c>
@@ -3557,45 +3557,45 @@
       <c r="AK24" s="4"/>
     </row>
     <row r="25" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="82">
+      <c r="A25" s="182">
         <v>1196027</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="166">
         <f>100*0.75</f>
         <v>75</v>
       </c>
-      <c r="E25" s="79" t="s">
+      <c r="E25" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="194" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="150">
         <v>19</v>
       </c>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73" t="s">
+      <c r="H25" s="147"/>
+      <c r="I25" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="76" t="s">
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70">
+      <c r="P25" s="133"/>
+      <c r="Q25" s="133">
         <v>6</v>
       </c>
-      <c r="R25" s="70"/>
+      <c r="R25" s="133"/>
       <c r="S25" s="51">
         <v>2</v>
       </c>
@@ -3629,24 +3629,24 @@
       <c r="AK25" s="4"/>
     </row>
     <row r="26" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
+      <c r="A26" s="191"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
       <c r="S26" s="48">
         <v>9</v>
       </c>
@@ -3680,24 +3680,24 @@
       <c r="AK26" s="4"/>
     </row>
     <row r="27" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="83"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
+      <c r="A27" s="191"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
       <c r="S27" s="48">
         <v>16</v>
       </c>
@@ -3731,24 +3731,24 @@
       <c r="AK27" s="4"/>
     </row>
     <row r="28" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="83"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
+      <c r="A28" s="191"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="134"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="134"/>
       <c r="S28" s="68">
         <v>23</v>
       </c>
@@ -3782,24 +3782,24 @@
       <c r="AK28" s="4"/>
     </row>
     <row r="29" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
+      <c r="A29" s="192"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="149"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="135"/>
       <c r="S29" s="69">
         <v>30</v>
       </c>
@@ -3832,25 +3832,25 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="143"/>
-      <c r="N30" s="143"/>
-      <c r="O30" s="145"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="140"/>
+      <c r="N30" s="140"/>
+      <c r="O30" s="142"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="36">
         <f>SUM(Q13:Q29)</f>
         <v>51</v>
       </c>
-      <c r="R30" s="142"/>
-      <c r="S30" s="143"/>
-      <c r="T30" s="143"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="143"/>
-      <c r="W30" s="143"/>
+      <c r="R30" s="139"/>
+      <c r="S30" s="140"/>
+      <c r="T30" s="140"/>
+      <c r="U30" s="140"/>
+      <c r="V30" s="140"/>
+      <c r="W30" s="140"/>
       <c r="X30" s="29"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
@@ -3867,31 +3867,31 @@
       <c r="AK30" s="8"/>
     </row>
     <row r="31" spans="1:37" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="181" t="s">
+      <c r="A31" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="183"/>
-      <c r="R31" s="182"/>
-      <c r="S31" s="182"/>
-      <c r="T31" s="182"/>
-      <c r="U31" s="182"/>
-      <c r="V31" s="182"/>
-      <c r="W31" s="182"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
@@ -3908,17 +3908,17 @@
       <c r="AK31" s="8"/>
     </row>
     <row r="32" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="169" t="s">
+      <c r="A32" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="171"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
       <c r="E32" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="171"/>
-      <c r="G32" s="103" t="s">
+      <c r="F32" s="127"/>
+      <c r="G32" s="70" t="s">
         <v>23</v>
       </c>
       <c r="H32" s="109" t="s">
@@ -3930,16 +3930,16 @@
       <c r="L32" s="110"/>
       <c r="M32" s="110"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="148" t="s">
+      <c r="O32" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="P32" s="146" t="s">
+      <c r="P32" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="146" t="s">
+      <c r="Q32" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="R32" s="103" t="s">
+      <c r="R32" s="70" t="s">
         <v>26</v>
       </c>
       <c r="S32" s="109" t="s">
@@ -3965,13 +3965,13 @@
       <c r="AK32" s="1"/>
     </row>
     <row r="33" spans="1:37" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="172"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="150"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="94"/>
       <c r="H33" s="39" t="s">
         <v>13</v>
       </c>
@@ -3993,10 +3993,10 @@
       <c r="N33" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="O33" s="150"/>
-      <c r="P33" s="193"/>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="150"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="94"/>
       <c r="S33" s="39" t="s">
         <v>13</v>
       </c>
@@ -4030,46 +4030,46 @@
       <c r="AK33" s="1"/>
     </row>
     <row r="34" spans="1:37" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="161" t="s">
+      <c r="A34" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="162"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="161" t="s">
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="162"/>
-      <c r="G34" s="136" t="s">
+      <c r="F34" s="116"/>
+      <c r="G34" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="139" t="s">
+      <c r="H34" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="139" t="s">
+      <c r="I34" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="139" t="s">
+      <c r="J34" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="139" t="s">
+      <c r="K34" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="L34" s="139" t="s">
+      <c r="L34" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="M34" s="139"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="178" t="s">
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="P34" s="151">
+      <c r="P34" s="99">
         <v>42745</v>
       </c>
-      <c r="Q34" s="151">
+      <c r="Q34" s="99">
         <v>42755</v>
       </c>
-      <c r="R34" s="70">
+      <c r="R34" s="133">
         <v>72</v>
       </c>
       <c r="S34" s="51">
@@ -4105,24 +4105,24 @@
       <c r="AK34" s="46"/>
     </row>
     <row r="35" spans="1:37" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="164"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="140"/>
-      <c r="L35" s="140"/>
-      <c r="M35" s="140"/>
-      <c r="N35" s="140"/>
-      <c r="O35" s="140"/>
-      <c r="P35" s="195"/>
-      <c r="Q35" s="152"/>
-      <c r="R35" s="71"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="134"/>
       <c r="S35" s="48">
         <v>9</v>
       </c>
@@ -4156,24 +4156,24 @@
       <c r="AK35" s="46"/>
     </row>
     <row r="36" spans="1:37" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="164"/>
-      <c r="B36" s="165"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="166"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="140"/>
-      <c r="L36" s="140"/>
-      <c r="M36" s="140"/>
-      <c r="N36" s="140"/>
-      <c r="O36" s="140"/>
-      <c r="P36" s="195"/>
-      <c r="Q36" s="152"/>
-      <c r="R36" s="71"/>
+      <c r="A36" s="118"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="134"/>
       <c r="S36" s="55">
         <v>16</v>
       </c>
@@ -4207,24 +4207,24 @@
       <c r="AK36" s="46"/>
     </row>
     <row r="37" spans="1:37" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="164"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="166"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="140"/>
-      <c r="L37" s="140"/>
-      <c r="M37" s="140"/>
-      <c r="N37" s="140"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="195"/>
-      <c r="Q37" s="152"/>
-      <c r="R37" s="71"/>
+      <c r="A37" s="118"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="145"/>
+      <c r="R37" s="134"/>
       <c r="S37" s="31">
         <v>23</v>
       </c>
@@ -4258,24 +4258,24 @@
       <c r="AK37" s="46"/>
     </row>
     <row r="38" spans="1:37" s="44" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="164"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="141"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="141"/>
-      <c r="K38" s="141"/>
-      <c r="L38" s="141"/>
-      <c r="M38" s="141"/>
-      <c r="N38" s="141"/>
-      <c r="O38" s="141"/>
-      <c r="P38" s="196"/>
-      <c r="Q38" s="153"/>
-      <c r="R38" s="72"/>
+      <c r="A38" s="118"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="146"/>
+      <c r="R38" s="135"/>
       <c r="S38" s="33">
         <v>30</v>
       </c>
@@ -4301,24 +4301,24 @@
       <c r="AK38" s="46"/>
     </row>
     <row r="39" spans="1:37" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="133"/>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="139"/>
-      <c r="K39" s="139"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="139"/>
-      <c r="N39" s="139"/>
-      <c r="O39" s="178"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="177"/>
-      <c r="R39" s="70"/>
+      <c r="A39" s="122"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="137"/>
+      <c r="Q39" s="136"/>
+      <c r="R39" s="133"/>
       <c r="S39" s="51">
         <v>2</v>
       </c>
@@ -4352,24 +4352,24 @@
       <c r="AK39" s="46"/>
     </row>
     <row r="40" spans="1:37" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="135"/>
-      <c r="B40" s="168"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="140"/>
-      <c r="L40" s="140"/>
-      <c r="M40" s="140"/>
-      <c r="N40" s="140"/>
-      <c r="O40" s="140"/>
-      <c r="P40" s="140"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
+      <c r="A40" s="123"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="134"/>
+      <c r="R40" s="134"/>
       <c r="S40" s="48">
         <v>9</v>
       </c>
@@ -4403,24 +4403,24 @@
       <c r="AK40" s="46"/>
     </row>
     <row r="41" spans="1:37" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="135"/>
-      <c r="B41" s="168"/>
-      <c r="C41" s="168"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="134"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="140"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="140"/>
-      <c r="N41" s="140"/>
-      <c r="O41" s="140"/>
-      <c r="P41" s="140"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="134"/>
+      <c r="R41" s="134"/>
       <c r="S41" s="48">
         <v>16</v>
       </c>
@@ -4454,24 +4454,24 @@
       <c r="AK41" s="46"/>
     </row>
     <row r="42" spans="1:37" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="135"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="140"/>
-      <c r="O42" s="140"/>
-      <c r="P42" s="140"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
+      <c r="A42" s="123"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="134"/>
+      <c r="R42" s="134"/>
       <c r="S42" s="31">
         <v>23</v>
       </c>
@@ -4505,24 +4505,24 @@
       <c r="AK42" s="46"/>
     </row>
     <row r="43" spans="1:37" s="44" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="135"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="141"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="141"/>
-      <c r="L43" s="141"/>
-      <c r="M43" s="141"/>
-      <c r="N43" s="141"/>
-      <c r="O43" s="141"/>
-      <c r="P43" s="141"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
+      <c r="A43" s="123"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="135"/>
+      <c r="R43" s="135"/>
       <c r="S43" s="33">
         <v>30</v>
       </c>
@@ -4548,24 +4548,24 @@
       <c r="AK43" s="46"/>
     </row>
     <row r="44" spans="1:37" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="157"/>
-      <c r="B44" s="157"/>
-      <c r="C44" s="157"/>
-      <c r="D44" s="157"/>
-      <c r="E44" s="157"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="158" t="s">
+      <c r="A44" s="111"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="159"/>
-      <c r="J44" s="159"/>
-      <c r="K44" s="159"/>
-      <c r="L44" s="159"/>
-      <c r="M44" s="159"/>
-      <c r="N44" s="159"/>
-      <c r="O44" s="159"/>
-      <c r="P44" s="160"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="114"/>
       <c r="R44" s="56">
         <f>Q30+R34+R39</f>
         <v>123</v>
@@ -26645,6 +26645,112 @@
     </row>
   </sheetData>
   <mergeCells count="130">
+    <mergeCell ref="R25:R29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="P20:P24"/>
+    <mergeCell ref="Q20:Q24"/>
+    <mergeCell ref="R20:R24"/>
+    <mergeCell ref="O13:O19"/>
+    <mergeCell ref="N13:N19"/>
+    <mergeCell ref="M13:M19"/>
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="K13:K19"/>
+    <mergeCell ref="L13:L19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="K25:K29"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="M25:M29"/>
+    <mergeCell ref="N20:N24"/>
+    <mergeCell ref="O20:O24"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="A9:X9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="P13:P19"/>
+    <mergeCell ref="Q13:Q19"/>
+    <mergeCell ref="R13:R19"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="O8:W8"/>
+    <mergeCell ref="W4:X6"/>
+    <mergeCell ref="G7:X7"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="S10:X11"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="K39:K43"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="R34:R38"/>
+    <mergeCell ref="L34:L38"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="M20:M24"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="O25:O29"/>
+    <mergeCell ref="P25:P29"/>
+    <mergeCell ref="Q25:Q29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="H44:P44"/>
+    <mergeCell ref="A34:D38"/>
+    <mergeCell ref="E34:F38"/>
+    <mergeCell ref="A39:D43"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="R39:R43"/>
+    <mergeCell ref="Q39:Q43"/>
+    <mergeCell ref="O39:O43"/>
+    <mergeCell ref="P39:P43"/>
+    <mergeCell ref="M39:M43"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="N39:N43"/>
     <mergeCell ref="F13:F15"/>
@@ -26669,112 +26775,6 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="P34:P38"/>
     <mergeCell ref="E13:E19"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="S32:X32"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="H44:P44"/>
-    <mergeCell ref="A34:D38"/>
-    <mergeCell ref="E34:F38"/>
-    <mergeCell ref="A39:D43"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="R39:R43"/>
-    <mergeCell ref="Q39:Q43"/>
-    <mergeCell ref="O39:O43"/>
-    <mergeCell ref="P39:P43"/>
-    <mergeCell ref="M39:M43"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="K39:K43"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="R34:R38"/>
-    <mergeCell ref="L34:L38"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="M20:M24"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="O25:O29"/>
-    <mergeCell ref="P25:P29"/>
-    <mergeCell ref="Q25:Q29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="A9:X9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="I13:I19"/>
-    <mergeCell ref="P13:P19"/>
-    <mergeCell ref="Q13:Q19"/>
-    <mergeCell ref="R13:R19"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G19"/>
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="D2:X2"/>
-    <mergeCell ref="O8:W8"/>
-    <mergeCell ref="W4:X6"/>
-    <mergeCell ref="G7:X7"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="S10:X11"/>
-    <mergeCell ref="H13:H19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="J25:J29"/>
-    <mergeCell ref="K25:K29"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="M25:M29"/>
-    <mergeCell ref="N20:N24"/>
-    <mergeCell ref="O20:O24"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="R25:R29"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="P20:P24"/>
-    <mergeCell ref="Q20:Q24"/>
-    <mergeCell ref="R20:R24"/>
-    <mergeCell ref="O13:O19"/>
-    <mergeCell ref="N13:N19"/>
-    <mergeCell ref="M13:M19"/>
-    <mergeCell ref="J13:J19"/>
-    <mergeCell ref="K13:K19"/>
-    <mergeCell ref="L13:L19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O34:O43">
